--- a/data/ground/data.xlsx
+++ b/data/ground/data.xlsx
@@ -720,7 +720,7 @@
         <v>高松市立東部運動公園</v>
       </c>
       <c r="E9" t="str">
-        <v>高松市高松町963-2</v>
+        <v>高松市高松町1347番地1</v>
       </c>
       <c r="F9" t="str">
         <v>087-843-9446</v>
